--- a/3-python-for-data-analysis/data/wholesale.xlsx
+++ b/3-python-for-data-analysis/data/wholesale.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\olt-first-steps-with-python-for-spreadsheet-users\3-python-for-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E694F3A8-E5F4-47C9-99D7-146D3E2542A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931CB1F0-E47D-462D-8FEF-067BC57290E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="regions" sheetId="2" r:id="rId2"/>
     <sheet name="channels" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Channel</t>
   </si>
@@ -46,12 +56,6 @@
   </si>
   <si>
     <t>Delicassen</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>channel</t>
   </si>
   <si>
     <t>Horeca</t>
@@ -78,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12393,21 +12397,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12415,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12423,7 +12427,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12431,7 +12435,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -12440,11 +12444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12454,10 +12458,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12465,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12473,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
